--- a/biology/Zoologie/Aplacophora/Aplacophora.xlsx
+++ b/biology/Zoologie/Aplacophora/Aplacophora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aplacophores
 Les Aplacophores (Aplacophora) sont une classe de mollusques vermiformes qui font l'objet d'âpres discussions dans la communauté scientifique quant à leur position systématique.
@@ -513,7 +525,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De petite taille et vermiformes, ils ne sont pas pourvus de coquille mais leur manteau secrète de petites spicules qui pourraient bien être l'ébauche d'une coquille.
 Leur cavité palléale abrite les branchies sur laquelle débouche l'anus et les orifices urinaires. Ils possèdent une radula pour se nourrir.
@@ -546,7 +560,9 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Solénogastres
 Caudofovéates
@@ -579,9 +595,11 @@
           <t>Liste des sous-classes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (8 oct. 2010)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (8 oct. 2010) :
 sous-classe Chaetodermomorpha
 famille Chaetodermatidae Ihering, 1876
 famille Limifossoridae Salvini-Plawen, 1968
@@ -613,7 +631,7 @@
 famille Herteroherpiidae
 famille Imeroherpiidae
 famille Phyllomeniidae
-Selon Animal Diversity Web                                (8 oct. 2010)[2] :
+Selon Animal Diversity Web                                (8 oct. 2010) :
 sous-classe Caudofoveata
 famille Chaetodermatidae
 famille Limifossoridae
@@ -645,7 +663,7 @@
 famille Herteroherpiidae
 famille Imeroherpiidae
 famille Phyllomeniidae
-Selon NCBI  (8 oct. 2010)[3] :
+Selon NCBI  (8 oct. 2010) :
 sous-classe Caudofoveata
 super-ordre Chaetodermomorpha
 ordre Chaetodermatida
